--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_3.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999968908783226</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990396164975762</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999995718475202</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999448744262</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999998495160451</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G2" t="n">
-        <v>2.90222861120939e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008964758435490352</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I2" t="n">
-        <v>1.889408989542544e-07</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>6.694183695532905e-08</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>1.279413679547917e-07</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>9.813363852112858e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001703592853709298</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000074618920259</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001776118328415071</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P2" t="n">
-        <v>75.50006325896514</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q2" t="n">
-        <v>105.9719588806702</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_1</t>
+          <t>model_8_3_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999974177794967</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990395534092072</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999991909450513</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999998272991838</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999996666957098</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G3" t="n">
-        <v>2.410389493496315e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008965347337721732</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I3" t="n">
-        <v>3.570306759995737e-07</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>2.097195384075219e-07</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>2.833751072035478e-07</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>9.655534823289841e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001552542911966144</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000061973292079</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001618637877935426</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P3" t="n">
-        <v>75.87144441592292</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q3" t="n">
-        <v>106.3433400376279</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_2</t>
+          <t>model_8_3_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999978102709635</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990393856482059</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999986733099077</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999996457731632</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999994027191319</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G4" t="n">
-        <v>2.044015937635706e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008966913313030884</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I4" t="n">
-        <v>5.854596913093208e-07</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>4.301559789762182e-07</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K4" t="n">
-        <v>5.078078351427695e-07</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>9.662616371895481e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001429690853868663</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000052553496877</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001490555753385915</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P4" t="n">
-        <v>76.20118817675095</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q4" t="n">
-        <v>106.673083798456</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_3</t>
+          <t>model_8_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999980984962198</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990391338896133</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999980600646646</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999994223422661</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999990840028221</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G5" t="n">
-        <v>1.774970312460279e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008969263368983545</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I5" t="n">
-        <v>8.560808203621004e-07</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>7.014796799531922e-07</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K5" t="n">
-        <v>7.787802501576462e-07</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>9.670408500279391e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001332280117865713</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000045636090725</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001388998040683298</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P5" t="n">
-        <v>76.48345372110251</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q5" t="n">
-        <v>106.9553493428075</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_4</t>
+          <t>model_8_3_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999983040910114</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990388426879434</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999973856984989</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999991703332501</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999998729014931</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G6" t="n">
-        <v>1.583056599043014e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008971981608749145</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I6" t="n">
-        <v>1.153674214241295e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>1.007507269488911e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>1.080590741865103e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>9.671303422362083e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001258195771349997</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000040701815726</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001311759770160669</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P6" t="n">
-        <v>76.71230604682668</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.1842016685317</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_5</t>
+          <t>model_8_3_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999984451614224</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990385125607522</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999966698674352</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999989035681052</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999983527277304</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G7" t="n">
-        <v>1.451373562639229e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000897506320117069</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I7" t="n">
-        <v>1.46956579742221e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.331453990027051e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K7" t="n">
-        <v>1.40050989372463e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>9.669285343134904e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001204729663716814</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000037316125861</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001256017499635441</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P7" t="n">
-        <v>76.88600033068781</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q7" t="n">
-        <v>107.3578959523928</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_6</t>
+          <t>model_8_3_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999985368721976</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990381779751343</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999959499428462</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999986289930888</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999979698006891</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G8" t="n">
-        <v>1.365765579579876e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008978186411046684</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I8" t="n">
-        <v>1.787263826532388e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>1.664884641694704e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K8" t="n">
-        <v>1.726074234113546e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>9.664452607367301e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001168659736441654</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000035115067257</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001218412000881134</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P8" t="n">
-        <v>77.00759084478358</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q8" t="n">
-        <v>107.4794864664886</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_7</t>
+          <t>model_8_3_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999985905113166</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990378301477797</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999952311048182</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999983553348598</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999975878103661</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G9" t="n">
-        <v>1.315695816575242e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000898143322672369</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1044823634352e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>1.997201990848203e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K9" t="n">
-        <v>2.050842177141702e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>9.660318045866096e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001147037844438989</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000033827728402</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001195869620172429</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P9" t="n">
-        <v>77.0822897883974</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.5541854101024</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_8</t>
+          <t>model_8_3_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999986154323621</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990374948834848</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999945303826345</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999980871583195</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999972144363173</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G10" t="n">
-        <v>1.292433114425016e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008984562771752701</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I10" t="n">
-        <v>2.413706496312574e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>2.322862641813792e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K10" t="n">
-        <v>2.368284569063183e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>9.651977816129585e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001136852283467389</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000033229623309</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00118525043878325</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P10" t="n">
-        <v>77.11796796179408</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q10" t="n">
-        <v>107.5898635834991</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_9</t>
+          <t>model_8_3_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999998618652258</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990371456338731</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999938483141891</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999978290971107</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999968531272875</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G11" t="n">
-        <v>1.289427482944687e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008987822863574804</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I11" t="n">
-        <v>2.71469885603353e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>2.636239722271702e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K11" t="n">
-        <v>2.675469289152616e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>9.642142280376255e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001135529604609535</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000033152345807</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001183871450748095</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P11" t="n">
-        <v>77.12262449955006</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.5945201212551</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_10</t>
+          <t>model_8_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999986053946657</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990368145701548</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999931971980046</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999975801186218</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999965063375855</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G12" t="n">
-        <v>1.301802863474104e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008990913198065149</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I12" t="n">
-        <v>3.002032184724445e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>2.938587185850793e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>2.970309685287619e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>9.63565689102892e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001140965759115542</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000033470528024</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001189539033605813</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P12" t="n">
-        <v>77.10352087236758</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.5754164940726</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_11</t>
+          <t>model_8_3_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999985820688059</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990365119153959</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999925827493534</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999973474242517</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999961806933888</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G13" t="n">
-        <v>1.323576529691598e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008993738347389786</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I13" t="n">
-        <v>3.273184369975503e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>3.221160001383879e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K13" t="n">
-        <v>3.247172185679691e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>9.623293336958427e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001150467961175624</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000034030348659</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001199445764079864</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P13" t="n">
-        <v>77.07034598646472</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q13" t="n">
-        <v>107.5422416081697</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999985497480526</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990362205750256</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999920026911798</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999971255568021</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999958717064512</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G14" t="n">
-        <v>1.353746534240018e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008996457881862244</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I14" t="n">
-        <v>3.529160261565755e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>3.490585127028699e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K14" t="n">
-        <v>3.509872694297227e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>9.615067119805684e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001163506138462543</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000034806046738</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001213039003566634</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P14" t="n">
-        <v>77.02526919750534</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q14" t="n">
-        <v>107.4971648192104</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_13</t>
+          <t>model_8_3_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999985124774783</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990359411097771</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999914562663409</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999969197292236</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999955829031417</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G15" t="n">
-        <v>1.388536979310608e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008999066567285368</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I15" t="n">
-        <v>3.770293981777037e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>3.740532207265259e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K15" t="n">
-        <v>3.755413094521148e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>9.607490548188033e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001178361989929499</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000035700540521</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00122852729938639</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P15" t="n">
-        <v>76.97451979598688</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.4464154176919</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_14</t>
+          <t>model_8_3_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999984724071603</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990356834709981</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999909536863337</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999996727348191</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999953150815426</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G16" t="n">
-        <v>1.425940862207023e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009001471512197379</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I16" t="n">
-        <v>3.992079263497915e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>3.974150450740306e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K16" t="n">
-        <v>3.983114857119111e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>9.600100840151666e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001194127657416502</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000036662228152</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001244964143977746</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P16" t="n">
-        <v>76.92135741587038</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q16" t="n">
-        <v>107.3932530375754</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_15</t>
+          <t>model_8_3_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999984308291719</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990354427018741</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999904844255609</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999965501207922</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999950667291426</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G17" t="n">
-        <v>1.464752089394448e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009003718986285575</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I17" t="n">
-        <v>4.199160984181823e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>4.189366852499747e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K17" t="n">
-        <v>4.194263918340785e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>9.592679158884036e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001210269428430896</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000037660099873</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001261793103602295</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P17" t="n">
-        <v>76.86764910414259</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.3395447258476</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_16</t>
+          <t>model_8_3_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999983893701506</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990352262402331</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999900551971262</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999963873279598</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999948390746228</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G18" t="n">
-        <v>1.50345226596277e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009005739560687313</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I18" t="n">
-        <v>4.388576695024597e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>4.387054613438258e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K18" t="n">
-        <v>4.387815654231427e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>9.583946981337679e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001226153443074222</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000038655116385</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001278353333633431</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P18" t="n">
-        <v>76.81549316726644</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.2873887889715</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_17</t>
+          <t>model_8_3_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999983477023178</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990350164670206</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999896513628548</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999996236984755</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999946269014749</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G19" t="n">
-        <v>1.542347358919915e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009007697701546345</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I19" t="n">
-        <v>4.566786127104053e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>4.569624147269343e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K19" t="n">
-        <v>4.568205137186698e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>9.577767425527953e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001241912782332123</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000039655144374</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O19" t="n">
-        <v>0.00129478358058987</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P19" t="n">
-        <v>76.76441008600703</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.236305707712</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_18</t>
+          <t>model_8_3_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999998307830316</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990348328629727</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999892879280547</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999960987000449</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999944338245986</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G20" t="n">
-        <v>1.579566122390207e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009009411564741411</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I20" t="n">
-        <v>4.727167535771794e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>4.737550426931384e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K20" t="n">
-        <v>4.732358981351589e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>9.570405270284879e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001256807909901194</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000040612072417</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001310312824576721</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P20" t="n">
-        <v>76.7167207094374</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q20" t="n">
-        <v>107.1886163311424</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_19</t>
+          <t>model_8_3_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999982697322503</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990346586940398</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999889547086115</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999959727617058</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999942574065658</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G21" t="n">
-        <v>1.615128994405571e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009011037355277302</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I21" t="n">
-        <v>4.874215104376865e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>4.890483869352587e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K21" t="n">
-        <v>4.882349486864727e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>9.565066324424904e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001270877253870558</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000041526425994</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001324981129646418</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P21" t="n">
-        <v>76.67219146356473</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.1440870852697</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_20</t>
+          <t>model_8_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999982330930947</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990345017526958</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999886492036384</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999958563287545</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999940949694291</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G22" t="n">
-        <v>1.649330037838061e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009012502333834885</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I22" t="n">
-        <v>5.009032457958332e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>5.031874427543965e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K22" t="n">
-        <v>5.020453442751149e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>9.558424837832107e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001284262448971417</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000042405765728</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001338936160213894</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P22" t="n">
-        <v>76.63028278036261</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.1021784020676</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_21</t>
+          <t>model_8_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999981984042953</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990343594298922</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999883657976342</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999957507133583</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999939459929279</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G23" t="n">
-        <v>1.681710509503776e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009013830854734244</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I23" t="n">
-        <v>5.134097680548773e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>5.160128668723e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K23" t="n">
-        <v>5.147113174635887e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>9.552968638306852e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001296807815176858</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000043238296914</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001352015608631189</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P23" t="n">
-        <v>76.59139824420791</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.0632938659129</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_22</t>
+          <t>model_8_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999981661982653</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990342299480898</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999881114359188</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999956547833639</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999938114710004</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G24" t="n">
-        <v>1.711773424698816e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009015039510523845</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I24" t="n">
-        <v>5.246345847795769e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>5.276621425265439e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K24" t="n">
-        <v>5.261483636530604e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>9.549482896670637e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001308347593225445</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000044011241632</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001364046658921939</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P24" t="n">
-        <v>76.5559612687787</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.0278568904837</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_23</t>
+          <t>model_8_3_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999981360399212</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990341108460362</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999878793714344</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999955666703328</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999936883182681</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G25" t="n">
-        <v>1.739924915161195e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009016151275914475</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I25" t="n">
-        <v>5.348754392362535e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>5.383621638761162e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K25" t="n">
-        <v>5.366188015561849e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>9.544462448146088e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001319062134685548</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000044735041892</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001375217340594157</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P25" t="n">
-        <v>76.52333719575026</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q25" t="n">
-        <v>106.9952328174553</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999998107688299</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990339992224326</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999876626076168</v>
+        <v>0.9999925068131376</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999954868401038</v>
+        <v>0.9999998715712402</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99999357505164</v>
+        <v>0.9999972926811389</v>
       </c>
       <c r="G26" t="n">
-        <v>1.766389910033212e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009017193233256581</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I26" t="n">
-        <v>5.444410852320925e-06</v>
+        <v>4.493272953718301e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>5.480563617107612e-06</v>
+        <v>3.575325667377206e-08</v>
       </c>
       <c r="K26" t="n">
-        <v>5.46248723471427e-06</v>
+        <v>2.264513105196037e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>9.541238203759783e-05</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001329056022157536</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000045415480824</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001385636688546026</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P26" t="n">
-        <v>76.49314538608823</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q26" t="n">
-        <v>106.9650410077932</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
   </sheetData>
